--- a/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/withholding_tax.xlsx
+++ b/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/withholding_tax.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">z0bug.wt_1040</t>
   </si>
   <si>
-    <t xml:space="preserve">1040-20%</t>
+    <t xml:space="preserve">1040-20%A</t>
   </si>
   <si>
     <t xml:space="preserve">1040 – 20% su 100% (A)</t>
@@ -76,25 +76,40 @@
     <t xml:space="preserve">account.account_payment_term_15days</t>
   </si>
   <si>
-    <t xml:space="preserve">other</t>
+    <t xml:space="preserve">external.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ritenuta</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.wt_1038</t>
   </si>
   <si>
-    <t xml:space="preserve">1040-23%</t>
+    <t xml:space="preserve">1040-23%R</t>
   </si>
   <si>
     <t xml:space="preserve">1040 – 23% su 50% (giù 1038) (R)</t>
   </si>
   <si>
+    <t xml:space="preserve">external.R</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.wt_enasarco_1</t>
   </si>
   <si>
     <t xml:space="preserve">enasarco</t>
   </si>
   <si>
-    <t xml:space="preserve">Enasarco 17% su 50% (A)</t>
+    <t xml:space="preserve">Enasarco 17% su 50% (R)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.wt_1040-23A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1040-23%A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1040 – 23% su 100% (A)</t>
   </si>
 </sst>
 </file>
@@ -109,6 +124,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -194,22 +210,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.11"/>
@@ -275,8 +291,11 @@
       <c r="H2" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="I2" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="J2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>1</v>
@@ -284,13 +303,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -307,8 +326,11 @@
       <c r="H3" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="I3" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="J3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1</v>
@@ -316,13 +338,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -339,10 +361,48 @@
       <c r="H4" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="I4" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="J4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
